--- a/lecture/lecture4/HeapifyTime.xlsx
+++ b/lecture/lecture4/HeapifyTime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncytron/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncytron/git/cse247-f16-students/lecture/lecture4/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -99,6 +99,3876 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T(n)=T(2*n/3)+5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$B$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="499"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>113.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>119.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>124.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>125.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>129.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>131.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>137.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>166.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>173.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>182.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>187.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>192.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>193.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>195.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>206.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>207.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>210.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>211.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>213.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>214.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>221.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>222.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>225.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>245.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>246.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>247.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>251.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>252.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>253.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>255.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>258.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>262.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>265.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>268.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>270.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>273.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>274.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>275.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>277.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>280.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>281.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>282.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>283.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>286.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>290.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>291.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>293.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>294.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>295.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>296.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>297.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>298.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>300.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>301.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>303.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>304.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>305.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>306.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>307.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>308.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>310.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>311.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>312.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>313.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>314.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>315.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>316.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>317.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>318.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>319.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>320.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>321.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>322.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>323.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>324.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>325.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>327.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>328.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>329.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>330.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>331.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>332.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>333.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>334.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>335.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>336.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>337.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>338.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>339.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>340.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>341.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>343.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>344.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>345.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>346.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>347.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>348.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>349.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>350.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>351.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>352.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>353.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>354.0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>355.0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>356.0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>357.0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>358.0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>359.0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>360.0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>361.0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>362.0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>363.0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>364.0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>365.0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>366.0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>367.0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>368.0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>369.0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>370.0</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>371.0</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>372.0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>373.0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>374.0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>375.0</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>376.0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>377.0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>378.0</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>379.0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>380.0</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>381.0</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>382.0</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>383.0</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>384.0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>385.0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>386.0</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>387.0</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>388.0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>389.0</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>390.0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>391.0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>392.0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>393.0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>394.0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>395.0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>396.0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>397.0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>398.0</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>399.0</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>400.0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>401.0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>402.0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>403.0</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>404.0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>405.0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>406.0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>407.0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>408.0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>409.0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>410.0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>411.0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>412.0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>413.0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>414.0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>415.0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>416.0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>417.0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>418.0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>419.0</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>420.0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>421.0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>422.0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>423.0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>424.0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>425.0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>426.0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>427.0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>428.0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>429.0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>430.0</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>431.0</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>432.0</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>433.0</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>434.0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>435.0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>436.0</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>437.0</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>438.0</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>439.0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>440.0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>441.0</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>442.0</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>443.0</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>444.0</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>445.0</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>446.0</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>447.0</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>448.0</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>449.0</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>450.0</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>451.0</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>452.0</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>453.0</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>454.0</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>455.0</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>456.0</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>457.0</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>458.0</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>459.0</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>460.0</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>461.0</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>462.0</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>463.0</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>464.0</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>465.0</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>466.0</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>467.0</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>468.0</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>469.0</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>470.0</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>471.0</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>472.0</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>473.0</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>474.0</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>475.0</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>476.0</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>477.0</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>478.0</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>479.0</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>480.0</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>481.0</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>482.0</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>483.0</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>484.0</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>485.0</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>486.0</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>487.0</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>488.0</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>489.0</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>490.0</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>491.0</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>492.0</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>493.0</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>494.0</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>495.0</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>496.0</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>497.0</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>498.0</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>499.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$500</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="499"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>60.0</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>60.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-306408112"/>
+        <c:axId val="-306412160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-306408112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-306412160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-306412160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-306408112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>730250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6881,5 +10751,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>